--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/training/training_act12d0_01_b.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/training/training_act12d0_01_b.xlsx
@@ -36,7 +36,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">We’ve all got a lot of experience dealing with these Giant Mushrooms!
+    <t xml:space="preserve">We've all got a lot of experience dealing with these Giant Mushrooms!
 </t>
   </si>
   <si>
